--- a/2/Web I/Beadando/webfejlesztes_iranyelvek_v2024252_v2-1/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2/Web I/Beadando/webfejlesztes_iranyelvek_v2024252_v2-1/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenye\Documents\GitHub\elte-cs-bsc\2\Web I\Beadando\webfejlesztes_iranyelvek_v2024252_v2-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B1079C-5EE4-4F81-92E9-45DE909AE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7B1613-32D6-40AD-B25F-BC35A2E52E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-168" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1BD8638E-000E-4472-8AE1-C32ECD41C6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="111">
   <si>
     <t>Neved:</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Kurzus követelmény</t>
-  </si>
-  <si>
-    <t>írd ide hogy melyik oldalon van, és mit csinál a script</t>
   </si>
   <si>
     <t>írd ide , hogy melyik oldal</t>
@@ -620,6 +617,12 @@
   </si>
   <si>
     <t>f8u9i2@inf.elte.hu</t>
+  </si>
+  <si>
+    <t>a script az 'idok' oldalon van, és kattinthatóvá teszi a táblázat sorait, így meg lehet tekinteni bővebben a tartalmukat</t>
+  </si>
+  <si>
+    <t>főoldal</t>
   </si>
 </sst>
 </file>
@@ -1506,6 +1509,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1513,9 +1550,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,9 +1566,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1565,34 +1596,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3600,124 +3603,124 @@
       <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="17" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="66"/>
-      <c r="B1" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="B1" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="66"/>
       <c r="J1" s="68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="65"/>
       <c r="B2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="C2" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="65"/>
       <c r="B3" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
+        <v>53</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
       <c r="I3" s="65"/>
     </row>
-    <row r="4" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="65"/>
       <c r="B4" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
+      <c r="C4" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="65"/>
     </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="123" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
+      <c r="B5" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="65"/>
     </row>
-    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="65"/>
     </row>
-    <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="102" t="str">
+      <c r="B7" s="112" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D12," pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 50 pontot el kell érni. A hallgatói és tutori értékelés tekintetében, maximum 15 darab irányelvben lehet eltérés, ennél több esetén már nem tudjuk elfogadni a feladatot.</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
       <c r="I7" s="65"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3728,10 +3731,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="65"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3741,10 +3744,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="65"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="99"/>
       <c r="D10" s="42">
@@ -3752,17 +3755,17 @@
         <v>47</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="F10" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="65"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="65"/>
       <c r="B11" s="99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="99"/>
       <c r="D11" s="42">
@@ -3770,30 +3773,30 @@
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="65"/>
     </row>
-    <row r="12" spans="1:10" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="65"/>
       <c r="B12" s="99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="99"/>
       <c r="D12" s="42">
         <v>50</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="65"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -3803,10 +3806,10 @@
       <c r="H13" s="1"/>
       <c r="I13" s="65"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="99"/>
       <c r="D14" s="42" t="b">
@@ -3819,10 +3822,10 @@
       <c r="H14" s="1"/>
       <c r="I14" s="65"/>
     </row>
-    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="99"/>
       <c r="D15" s="43">
@@ -3830,18 +3833,18 @@
         <v>-95</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="106" t="str">
+      <c r="F15" s="100" t="str">
         <f>CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
         <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján elégtelen  érdemjegyet kapnál rá.</v>
       </c>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="65"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -3851,10 +3854,10 @@
       <c r="H16" s="1"/>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="65"/>
       <c r="B17" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="99"/>
       <c r="D17" s="42" t="str">
@@ -3862,17 +3865,17 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="108" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="F17" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
       <c r="I17" s="65"/>
     </row>
-    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65"/>
       <c r="B18" s="99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="99"/>
       <c r="D18" s="43" t="str">
@@ -3880,15 +3883,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="65"/>
     </row>
-    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="99"/>
       <c r="D19" s="43" t="str">
@@ -3896,15 +3899,15 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="65"/>
     </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3914,58 +3917,58 @@
       <c r="H20" s="1"/>
       <c r="I20" s="65"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="99"/>
       <c r="D21" s="44">
         <v>20</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
+      <c r="F21" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="65"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="99"/>
       <c r="D22" s="44">
         <v>10</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
       <c r="I22" s="65"/>
     </row>
-    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65"/>
-      <c r="B23" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="105"/>
+      <c r="B23" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="115"/>
       <c r="D23" s="44" t="str">
         <f>IF(D26=TRUE,SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="65"/>
       <c r="B24" s="99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="99"/>
       <c r="D24" s="43" t="str">
@@ -3973,12 +3976,12 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="65"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -3989,12 +3992,12 @@
       <c r="H25" s="13"/>
       <c r="I25" s="65"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="65"/>
-      <c r="B26" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="98"/>
+      <c r="B26" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="109"/>
       <c r="D26" s="45" t="b">
         <v>0</v>
       </c>
@@ -4004,12 +4007,12 @@
       <c r="H26" s="46"/>
       <c r="I26" s="65"/>
     </row>
-    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="65"/>
-      <c r="B27" s="124" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="125"/>
+      <c r="B27" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="107"/>
       <c r="D27" s="45"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
@@ -4017,12 +4020,12 @@
       <c r="H27" s="46"/>
       <c r="I27" s="65"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="65"/>
-      <c r="B28" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="118"/>
+      <c r="B28" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="98"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="46"/>
@@ -4030,18 +4033,18 @@
       <c r="H28" s="46"/>
       <c r="I28" s="65"/>
     </row>
-    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="65"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="65"/>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
@@ -4055,6 +4058,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Mz7EfEDe6v8cDUz4TxEHDWHiqsbUlOKtpPmMASCpJrCgqIKcchwB59qyedMGM9nhDxctmLUFNc/7+3pzDxMfOQ==" saltValue="ufiuVYYMa4lem5kpeJ7gNw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="27">
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F21:H24"/>
+    <mergeCell ref="F17:H19"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B12:C12"/>
@@ -4071,17 +4085,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F21:H24"/>
-    <mergeCell ref="F17:H19"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
@@ -4144,26 +4147,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="51" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="57" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="63" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="52" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="57" customWidth="1"/>
+    <col min="9" max="10" width="9.109375" customWidth="1"/>
+    <col min="11" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="62"/>
       <c r="B1" s="61" t="s">
         <v>10</v>
@@ -4172,35 +4175,35 @@
         <v>9</v>
       </c>
       <c r="D1" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>33</v>
-      </c>
       <c r="J1" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="15"/>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="30"/>
@@ -4233,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <f>A2+1</f>
         <v>2</v>
@@ -4242,7 +4245,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="31"/>
@@ -4267,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <f t="shared" ref="A4:A48" si="3">A3+1</f>
         <v>3</v>
@@ -4276,7 +4279,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="31"/>
@@ -4302,7 +4305,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="11" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -4311,7 +4314,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="31"/>
@@ -4337,7 +4340,7 @@
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4346,11 +4349,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="31" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="48"/>
@@ -4374,7 +4377,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4383,11 +4386,11 @@
         <v>16</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="31" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="48"/>
@@ -4410,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4419,7 +4422,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="31"/>
@@ -4444,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="82" customFormat="1" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="82" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="72">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -4453,7 +4456,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="76"/>
@@ -4478,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="139.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -4487,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="30"/>
@@ -4512,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -4521,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="31"/>
@@ -4546,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -4555,7 +4558,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="50"/>
       <c r="E12" s="31"/>
@@ -4578,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -4587,7 +4590,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="50"/>
       <c r="E13" s="31"/>
@@ -4610,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -4619,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="31"/>
@@ -4642,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -4651,7 +4654,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="50"/>
       <c r="E15" s="31"/>
@@ -4674,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -4683,7 +4686,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="31"/>
@@ -4706,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -4715,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="50"/>
       <c r="E17" s="31"/>
@@ -4738,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -4747,7 +4750,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="50"/>
       <c r="E18" s="31"/>
@@ -4770,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -4779,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="31"/>
@@ -4802,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -4811,7 +4814,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="50"/>
       <c r="E20" s="31"/>
@@ -4834,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -4843,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="31"/>
@@ -4866,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -4875,7 +4878,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="31"/>
@@ -4898,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -4907,7 +4910,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="31"/>
@@ -4930,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -4939,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="31"/>
@@ -4962,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -4971,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="31"/>
@@ -4994,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="83" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="83" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="72">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -5003,7 +5006,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="75"/>
       <c r="E26" s="76"/>
@@ -5026,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="71">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -5035,7 +5038,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="30"/>
@@ -5058,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -5067,7 +5070,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="31"/>
@@ -5090,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -5099,7 +5102,7 @@
         <v>13</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="31"/>
@@ -5122,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="34">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -5154,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="34">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -5186,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="34">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -5195,7 +5198,7 @@
         <v>13</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="31"/>
@@ -5218,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="34">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -5227,7 +5230,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="30"/>
@@ -5250,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="34">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -5259,7 +5262,7 @@
         <v>13</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="31"/>
@@ -5282,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="83" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" s="83" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="72">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -5291,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="75"/>
       <c r="E35" s="76"/>
@@ -5314,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="71">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -5323,7 +5326,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="30"/>
@@ -5348,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="34">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -5357,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="31"/>
@@ -5380,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="34">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -5389,7 +5392,7 @@
         <v>11</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="31"/>
@@ -5414,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -5423,7 +5426,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="31"/>
@@ -5446,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="34">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -5455,7 +5458,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="31"/>
@@ -5480,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -5489,7 +5492,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="32"/>
@@ -5512,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="83" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" s="83" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="72">
         <f t="shared" si="3"/>
         <v>41</v>
@@ -5521,7 +5524,7 @@
         <v>11</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="75"/>
       <c r="E42" s="76"/>
@@ -5544,16 +5547,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="71">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="50"/>
       <c r="E43" s="30"/>
@@ -5578,16 +5581,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="50"/>
       <c r="E44" s="31"/>
@@ -5612,16 +5615,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="50"/>
       <c r="E45" s="31"/>
@@ -5646,16 +5649,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D46" s="50"/>
       <c r="E46" s="31"/>
@@ -5680,20 +5683,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" s="50"/>
       <c r="G47" s="60"/>
@@ -5716,20 +5719,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="11" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="34">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" s="50"/>
       <c r="E48" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F48" s="50"/>
       <c r="G48" s="60"/>
@@ -5788,19 +5791,19 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -5830,7 +5833,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -5869,7 +5872,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -5913,7 +5916,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -5957,7 +5960,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -6001,7 +6004,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -6045,10 +6048,10 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!D6:D52,1)</f>
@@ -6089,7 +6092,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -6134,7 +6137,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6165,7 +6168,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6196,7 +6199,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6227,7 +6230,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6258,7 +6261,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6289,7 +6292,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6320,7 +6323,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6351,7 +6354,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6382,7 +6385,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6413,7 +6416,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6444,7 +6447,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6475,7 +6478,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6506,7 +6509,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6537,7 +6540,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6568,7 +6571,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6599,7 +6602,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6630,7 +6633,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6663,7 +6666,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -6694,7 +6697,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6725,7 +6728,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6756,7 +6759,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6787,7 +6790,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6818,7 +6821,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6849,7 +6852,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6880,7 +6883,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6911,7 +6914,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6942,7 +6945,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6973,7 +6976,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7004,7 +7007,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7035,7 +7038,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -7066,7 +7069,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -7097,7 +7100,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7128,7 +7131,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7159,7 +7162,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7190,7 +7193,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -7221,7 +7224,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -7252,7 +7255,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -7283,7 +7286,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -7314,7 +7317,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -7345,7 +7348,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -7390,19 +7393,19 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="127"/>
@@ -7432,7 +7435,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -7471,7 +7474,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="str">
         <f>Irányelvek!B2</f>
@@ -7516,7 +7519,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -7560,7 +7563,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -7604,7 +7607,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -7648,10 +7651,10 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3">
         <f>COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!F6:F52,1)</f>
@@ -7692,7 +7695,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -7737,7 +7740,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -7768,7 +7771,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -7799,7 +7802,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7830,7 +7833,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7861,7 +7864,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7892,7 +7895,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7923,7 +7926,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -7954,7 +7957,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7985,7 +7988,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8016,7 +8019,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8047,7 +8050,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8078,7 +8081,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8109,7 +8112,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8140,7 +8143,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8171,7 +8174,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8202,7 +8205,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8233,7 +8236,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8266,7 +8269,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8297,7 +8300,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8328,7 +8331,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8359,7 +8362,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8390,7 +8393,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8421,7 +8424,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8452,7 +8455,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8483,7 +8486,7 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -8514,7 +8517,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8545,7 +8548,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8576,7 +8579,7 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8607,7 +8610,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -8638,7 +8641,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8669,7 +8672,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -8700,7 +8703,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -8731,7 +8734,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -8762,7 +8765,7 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -8793,7 +8796,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -8824,7 +8827,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -8855,7 +8858,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -8886,7 +8889,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -8917,7 +8920,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -8948,7 +8951,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -8993,24 +8996,24 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="12">
         <f>Fedőlap!D11</f>
@@ -9018,7 +9021,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="19">
         <v>0.49</v>
       </c>
@@ -9026,7 +9029,7 @@
         <v>-100</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -9039,7 +9042,7 @@
         <v>7.7142857142857144</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
         <v>0.62</v>
       </c>
@@ -9048,14 +9051,14 @@
         <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <f>H3/2</f>
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="19">
         <v>0.75</v>
       </c>
@@ -9064,10 +9067,10 @@
         <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
         <v>0.88</v>
       </c>
@@ -9076,10 +9079,10 @@
         <v>76</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
         <v>1</v>
       </c>
@@ -9088,23 +9091,23 @@
         <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
     </row>
   </sheetData>

--- a/2/Web I/Beadando/webfejlesztes_iranyelvek_v2024252_v2-1/webfejlesztes_iranyelvek_v2024252_v2.xlsx
+++ b/2/Web I/Beadando/webfejlesztes_iranyelvek_v2024252_v2-1/webfejlesztes_iranyelvek_v2024252_v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t xml:space="preserve">Web-fejlesztés kurzus beadandó feladata</t>
   </si>
@@ -273,9 +273,6 @@
       </rPr>
       <t xml:space="preserve">A tageknek nem kell minden oldalon előfordulniuk, de amikor szemantikailag indokolt a használatuk, akkor a megfelelő taget KELL használni!</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">nincs article, aside</t>
   </si>
   <si>
     <t xml:space="preserve">Oldaltervezés</t>
@@ -1248,7 +1245,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1309,28 +1306,28 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1575,10 +1572,6 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1739,7 +1732,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1758,98 +1751,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFF1F5"/>
-          <bgColor rgb="FF1E1E2E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBEEF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDD9C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE6E0EC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDEADA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF9F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD7E4BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFBDBD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2070,16 +1971,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.875</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.888888888888889</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.571428571428571</c:v>
+                  <c:v>0.714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2088,13 +1989,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="6303710"/>
-        <c:axId val="18365392"/>
+        <c:axId val="91186120"/>
+        <c:axId val="40909486"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="6303710"/>
+        <c:axId val="91186120"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2132,7 +2033,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18365392"/>
+        <c:crossAx val="40909486"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2140,7 +2041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18365392"/>
+        <c:axId val="40909486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2184,7 +2085,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6303710"/>
+        <c:crossAx val="91186120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2378,16 +2279,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -2480,16 +2381,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2500,11 +2401,11 @@
         </c:ser>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="6533396"/>
-        <c:axId val="90088393"/>
+        <c:axId val="68446742"/>
+        <c:axId val="56142935"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6533396"/>
+        <c:axId val="68446742"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2537,7 +2438,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90088393"/>
+        <c:crossAx val="56142935"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2545,7 +2446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90088393"/>
+        <c:axId val="56142935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2579,7 +2480,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6533396"/>
+        <c:crossAx val="68446742"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2787,13 +2688,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81665170"/>
-        <c:axId val="6320817"/>
+        <c:axId val="96518843"/>
+        <c:axId val="22333418"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="81665170"/>
+        <c:axId val="96518843"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2831,7 +2732,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6320817"/>
+        <c:crossAx val="22333418"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2839,7 +2740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6320817"/>
+        <c:axId val="22333418"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2883,7 +2784,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81665170"/>
+        <c:crossAx val="96518843"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3199,11 +3100,11 @@
         </c:ser>
         <c:gapWidth val="95"/>
         <c:overlap val="100"/>
-        <c:axId val="76296812"/>
-        <c:axId val="95512804"/>
+        <c:axId val="69570803"/>
+        <c:axId val="38847352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76296812"/>
+        <c:axId val="69570803"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3236,7 +3137,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95512804"/>
+        <c:crossAx val="38847352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3244,7 +3145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95512804"/>
+        <c:axId val="38847352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3278,7 +3179,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76296812"/>
+        <c:crossAx val="69570803"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3340,60 +3241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/ctrlProps/ctrlProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" autoLine="false" print="true" fmlaLink="Fedőlap!$D$26" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>-847800</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1001" name="Check Box 469" descr="" hidden="0"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr anchor="ctr">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:p>
-              <a:r>
-                <a:t/>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3404,9 +3252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>637560</xdr:colOff>
+      <xdr:colOff>637200</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3415,7 +3263,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7402680" y="38160"/>
-        <a:ext cx="8092440" cy="4685760"/>
+        <a:ext cx="8098560" cy="4685400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3434,9 +3282,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1116000</xdr:colOff>
+      <xdr:colOff>1115640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3444,8 +3292,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="762120" y="2152440"/>
-        <a:ext cx="6507000" cy="2638080"/>
+        <a:off x="762840" y="2152440"/>
+        <a:ext cx="6506640" cy="2637720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3458,7 +3306,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3469,9 +3317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>647280</xdr:colOff>
+      <xdr:colOff>646920</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3480,7 +3328,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7402680" y="38160"/>
-        <a:ext cx="8102160" cy="4685760"/>
+        <a:ext cx="8108280" cy="4685400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3499,9 +3347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1116000</xdr:colOff>
+      <xdr:colOff>1115640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3509,8 +3357,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="762120" y="2152440"/>
-        <a:ext cx="6507000" cy="2638080"/>
+        <a:off x="762840" y="2152440"/>
+        <a:ext cx="6506640" cy="2637720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3530,11 +3378,11 @@
   </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.89"/>
@@ -3743,7 +3591,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="12"/>
-      <c r="D14" s="15" t="b">
+      <c r="D14" s="13" t="b">
         <f aca="false">IF(COUNTIFS(Irányelvek!D2:D48,"=1",Irányelvek!H2:H48,"=igaz")=19,TRUE(),FALSE())</f>
         <v>0</v>
       </c>
@@ -3759,17 +3607,17 @@
         <v>17</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="15" t="n">
         <f aca="false">SUM(Irányelvek!J2:J48)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="17" t="str">
+      <c r="F15" s="16" t="str">
         <f aca="false">CONCATENATE("Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján ",VLOOKUP(D15,Ponthatárok!$C$3:$D$7,2,TRUE()), "  érdemjegyet kapnál rá.")</f>
-        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján közepes  érdemjegyet kapnál rá.</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+        <v>Ha a feladatot önállóan értékelnénk, akkor az önértékelésed alapján jeles  érdemjegyet kapnál rá.</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3796,11 +3644,11 @@
         <v>Még nincs adat.</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3809,14 +3657,14 @@
         <v>21</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="15" t="str">
         <f aca="false">IF(D26=TRUE(),SUM(Irányelvek!K2:K48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3825,14 +3673,14 @@
         <v>22</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="15" t="str">
         <f aca="false">IF(D26=TRUE(),D18+D27,"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3854,15 +3702,15 @@
         <v>24</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="18" t="n">
         <v>20</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,29 +3719,29 @@
         <v>25</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="18" t="n">
         <v>10</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19" t="str">
+      <c r="C23" s="19"/>
+      <c r="D23" s="18" t="str">
         <f aca="false">IF(D26=TRUE(),SUM(Irányelvek!L2:L48),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3902,14 +3750,14 @@
         <v>27</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="20" t="str">
         <f aca="false">IF(D26,IF(ROUNDUP(20 - 0.71*D23,0)&gt;0,ROUNDUP(20 - 0.71*D23,0),0),"Még nincs adat.")</f>
         <v>Még nincs adat.</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,36 +3891,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1001" r:id="rId3" name="">
-              <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 469">
-                <anchor moveWithCells="true" sizeWithCells="false">
-                  <from>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>-847800</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -4084,12 +3902,12 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="15.89"/>
@@ -4098,9 +3916,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="34" width="24.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="10.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="22.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="9.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.66"/>
   </cols>
@@ -4419,11 +4237,9 @@
         <v>52</v>
       </c>
       <c r="D9" s="66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E9" s="67"/>
       <c r="F9" s="66"/>
       <c r="G9" s="68"/>
       <c r="H9" s="69" t="b">
@@ -4435,7 +4251,7 @@
       </c>
       <c r="J9" s="71" t="n">
         <f aca="false">IF(D9=1,I9,IF(H9=TRUE(),-5,""))</f>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="K9" s="72" t="n">
         <f aca="false">IF(F9=1,I9,IF(H9=TRUE(),-5,""))</f>
@@ -4443,7 +4259,7 @@
       </c>
       <c r="L9" s="70" t="n">
         <f aca="false">IF(J9=K9,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="139.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4452,10 +4268,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>55</v>
       </c>
       <c r="D10" s="47" t="n">
         <v>1</v>
@@ -4489,10 +4305,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="47" t="n">
         <v>1</v>
@@ -4526,10 +4342,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="47" t="n">
         <v>1</v>
@@ -4560,10 +4376,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>1</v>
@@ -4594,10 +4410,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>1</v>
@@ -4628,10 +4444,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="47" t="n">
         <v>1</v>
@@ -4662,10 +4478,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="47" t="n">
         <v>1</v>
@@ -4696,10 +4512,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="47" t="n">
         <v>1</v>
@@ -4730,10 +4546,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="47" t="n">
         <v>1</v>
@@ -4764,10 +4580,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>1</v>
@@ -4798,10 +4614,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>1</v>
@@ -4832,10 +4648,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="47" t="n">
         <v>1</v>
@@ -4866,10 +4682,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="47" t="n">
         <v>1</v>
@@ -4900,10 +4716,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="47" t="n">
         <v>1</v>
@@ -4934,10 +4750,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>1</v>
@@ -4968,10 +4784,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>1</v>
@@ -4996,16 +4812,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="83" customFormat="true" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="82" customFormat="true" ht="29.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="63" t="n">
         <f aca="false">A25+1</f>
         <v>25</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="66" t="n">
         <v>1</v>
@@ -5017,7 +4833,7 @@
       <c r="I26" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="82" t="n">
+      <c r="J26" s="71" t="n">
         <f aca="false">IF(D26=1,I26,IF(H26=TRUE(),-5,""))</f>
         <v>1</v>
       </c>
@@ -5035,11 +4851,11 @@
         <f aca="false">A26+1</f>
         <v>26</v>
       </c>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="76" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>73</v>
       </c>
       <c r="D27" s="47" t="n">
         <v>1</v>
@@ -5047,7 +4863,7 @@
       <c r="E27" s="48"/>
       <c r="F27" s="47"/>
       <c r="G27" s="49"/>
-      <c r="H27" s="85"/>
+      <c r="H27" s="84"/>
       <c r="I27" s="51" t="n">
         <v>2</v>
       </c>
@@ -5069,11 +4885,11 @@
         <f aca="false">A27+1</f>
         <v>27</v>
       </c>
-      <c r="B28" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="87" t="s">
-        <v>74</v>
+      <c r="B28" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>73</v>
       </c>
       <c r="D28" s="47" t="n">
         <v>1</v>
@@ -5103,11 +4919,11 @@
         <f aca="false">A28+1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="86" t="s">
-        <v>72</v>
+      <c r="B29" s="85" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="47" t="n">
         <v>1</v>
@@ -5137,11 +4953,11 @@
         <f aca="false">A29+1</f>
         <v>29</v>
       </c>
-      <c r="B30" s="86" t="s">
-        <v>72</v>
+      <c r="B30" s="85" t="s">
+        <v>71</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="47" t="n">
         <v>1</v>
@@ -5171,11 +4987,11 @@
         <f aca="false">A30+1</f>
         <v>30</v>
       </c>
-      <c r="B31" s="86" t="s">
-        <v>72</v>
+      <c r="B31" s="85" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="47" t="n">
         <v>1</v>
@@ -5205,14 +5021,14 @@
         <f aca="false">A31+1</f>
         <v>31</v>
       </c>
-      <c r="B32" s="86" t="s">
-        <v>72</v>
+      <c r="B32" s="85" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="47"/>
@@ -5221,9 +5037,9 @@
       <c r="I32" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="J32" s="51" t="str">
+      <c r="J32" s="79" t="n">
         <f aca="false">IF(D32=1,I32,IF(H32=TRUE(),-5,""))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="K32" s="52" t="str">
         <f aca="false">IF(F32=1,I32,IF(H32=TRUE(),-5,""))</f>
@@ -5231,7 +5047,7 @@
       </c>
       <c r="L32" s="58" t="n">
         <f aca="false">IF(J32=K32,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5239,11 +5055,11 @@
         <f aca="false">A32+1</f>
         <v>32</v>
       </c>
-      <c r="B33" s="86" t="s">
-        <v>72</v>
+      <c r="B33" s="85" t="s">
+        <v>71</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="47" t="n">
         <v>1</v>
@@ -5251,7 +5067,7 @@
       <c r="E33" s="48"/>
       <c r="F33" s="47"/>
       <c r="G33" s="49"/>
-      <c r="H33" s="85"/>
+      <c r="H33" s="84"/>
       <c r="I33" s="51" t="n">
         <v>1</v>
       </c>
@@ -5273,11 +5089,11 @@
         <f aca="false">A33+1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>80</v>
+      <c r="B34" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>79</v>
       </c>
       <c r="D34" s="47" t="n">
         <v>1</v>
@@ -5302,16 +5118,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="83" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="82" customFormat="true" ht="87" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="63" t="n">
         <f aca="false">A34+1</f>
         <v>34</v>
       </c>
-      <c r="B35" s="88" t="s">
-        <v>72</v>
+      <c r="B35" s="87" t="s">
+        <v>71</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="66" t="n">
         <v>1</v>
@@ -5323,7 +5139,7 @@
       <c r="I35" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J35" s="82" t="n">
+      <c r="J35" s="71" t="n">
         <f aca="false">IF(D35=1,I35,IF(H35=TRUE(),-5,""))</f>
         <v>2</v>
       </c>
@@ -5341,11 +5157,11 @@
         <f aca="false">A35+1</f>
         <v>35</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="76" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="76" t="s">
-        <v>83</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>1</v>
@@ -5378,11 +5194,11 @@
         <f aca="false">A36+1</f>
         <v>36</v>
       </c>
-      <c r="B37" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="91" t="s">
-        <v>84</v>
+      <c r="B37" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>83</v>
       </c>
       <c r="D37" s="47" t="n">
         <v>1</v>
@@ -5412,11 +5228,11 @@
         <f aca="false">A37+1</f>
         <v>37</v>
       </c>
-      <c r="B38" s="90" t="s">
-        <v>82</v>
+      <c r="B38" s="89" t="s">
+        <v>81</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D38" s="47" t="n">
         <v>1</v>
@@ -5449,11 +5265,11 @@
         <f aca="false">A38+1</f>
         <v>38</v>
       </c>
-      <c r="B39" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="91" t="s">
-        <v>86</v>
+      <c r="B39" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="90" t="s">
+        <v>85</v>
       </c>
       <c r="D39" s="47" t="n">
         <v>0</v>
@@ -5483,14 +5299,14 @@
         <f aca="false">A39+1</f>
         <v>39</v>
       </c>
-      <c r="B40" s="90" t="s">
-        <v>82</v>
+      <c r="B40" s="89" t="s">
+        <v>81</v>
       </c>
       <c r="C40" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D40" s="47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="55"/>
       <c r="F40" s="47"/>
@@ -5504,7 +5320,7 @@
       </c>
       <c r="J40" s="51" t="n">
         <f aca="false">IF(D40=1,I40,IF(H40=TRUE(),-5,""))</f>
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="K40" s="52" t="n">
         <f aca="false">IF(F40=1,I40,IF(H40=TRUE(),-5,""))</f>
@@ -5512,7 +5328,7 @@
       </c>
       <c r="L40" s="58" t="n">
         <f aca="false">IF(J40=K40,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="159" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5520,23 +5336,23 @@
         <f aca="false">A40+1</f>
         <v>40</v>
       </c>
-      <c r="B41" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="93" t="s">
-        <v>88</v>
+      <c r="B41" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>87</v>
       </c>
       <c r="D41" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="E41" s="94"/>
+      <c r="E41" s="93"/>
       <c r="F41" s="47"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="97" t="n">
+      <c r="G41" s="94"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="96" t="n">
         <v>5</v>
       </c>
-      <c r="J41" s="51" t="str">
+      <c r="J41" s="79" t="str">
         <f aca="false">IF(D41=1,I41,IF(H41=TRUE(),-5,""))</f>
         <v/>
       </c>
@@ -5549,16 +5365,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="83" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="82" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="63" t="n">
         <f aca="false">A41+1</f>
         <v>41</v>
       </c>
-      <c r="B42" s="98" t="s">
-        <v>82</v>
+      <c r="B42" s="97" t="s">
+        <v>81</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="66" t="n">
         <v>1</v>
@@ -5570,7 +5386,7 @@
       <c r="I42" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J42" s="82" t="n">
+      <c r="J42" s="71" t="n">
         <f aca="false">IF(D42=1,I42,IF(H42=TRUE(),-5,""))</f>
         <v>2</v>
       </c>
@@ -5588,11 +5404,11 @@
         <f aca="false">A42+1</f>
         <v>42</v>
       </c>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="76" t="s">
         <v>90</v>
-      </c>
-      <c r="C43" s="76" t="s">
-        <v>91</v>
       </c>
       <c r="D43" s="47" t="n">
         <v>1</v>
@@ -5625,11 +5441,11 @@
         <f aca="false">A43+1</f>
         <v>43</v>
       </c>
-      <c r="B44" s="100" t="s">
-        <v>90</v>
+      <c r="B44" s="99" t="s">
+        <v>89</v>
       </c>
       <c r="C44" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>1</v>
@@ -5662,11 +5478,11 @@
         <f aca="false">A44+1</f>
         <v>44</v>
       </c>
-      <c r="B45" s="100" t="s">
-        <v>90</v>
+      <c r="B45" s="99" t="s">
+        <v>89</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45" s="47" t="n">
         <v>1</v>
@@ -5699,18 +5515,18 @@
         <f aca="false">A45+1</f>
         <v>45</v>
       </c>
-      <c r="B46" s="100" t="s">
-        <v>90</v>
+      <c r="B46" s="99" t="s">
+        <v>89</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D46" s="47" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="55"/>
       <c r="F46" s="47"/>
-      <c r="G46" s="101"/>
+      <c r="G46" s="100"/>
       <c r="H46" s="57" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -5736,20 +5552,20 @@
         <f aca="false">A46+1</f>
         <v>46</v>
       </c>
-      <c r="B47" s="100" t="s">
-        <v>90</v>
+      <c r="B47" s="99" t="s">
+        <v>89</v>
       </c>
       <c r="C47" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="55" t="s">
-        <v>96</v>
-      </c>
       <c r="F47" s="47"/>
-      <c r="G47" s="101"/>
+      <c r="G47" s="100"/>
       <c r="H47" s="57" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -5775,20 +5591,20 @@
         <f aca="false">A47+1</f>
         <v>47</v>
       </c>
-      <c r="B48" s="100" t="s">
-        <v>90</v>
+      <c r="B48" s="99" t="s">
+        <v>89</v>
       </c>
       <c r="C48" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="102" t="s">
-        <v>98</v>
-      </c>
       <c r="F48" s="47"/>
-      <c r="G48" s="101"/>
+      <c r="G48" s="100"/>
       <c r="H48" s="57" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -5812,17 +5628,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NFGeAonkqAsS8Rw4VgtKMGRX/21iVNvgycveuOyDMhVMSAVcyM3sDEs4AwdoCL7er//mMCKNfjw+RuCIc6lhHA==" saltValue="oQtG/K2iAPJffpFsYCxxOw==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
   <conditionalFormatting sqref="C2:C48">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>H2=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576 F1:F1048576">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D48 F2:F48">
-    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="4" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5853,7 +5669,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
@@ -5864,13 +5680,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10"/>
-      <c r="B1" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="B1" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -5897,18 +5713,18 @@
     </row>
     <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="E2" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="F2" s="104" t="s">
         <v>102</v>
-      </c>
-      <c r="F2" s="105" t="s">
-        <v>103</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -5936,23 +5752,23 @@
     </row>
     <row r="3" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="104" t="n">
+      <c r="C3" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B2:B48,"="&amp;B3,Irányelvek!D2:D48,1)</f>
-        <v>7</v>
-      </c>
-      <c r="D3" s="104" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="103" t="n">
         <f aca="false">E3-C3</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="106" t="n">
         <v>8</v>
       </c>
-      <c r="F3" s="108" t="n">
+      <c r="F3" s="107" t="n">
         <f aca="false">C3/E3</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -5980,21 +5796,21 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
-      <c r="B4" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="104" t="n">
+      <c r="B4" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B3:B49,"="&amp;B4,Irányelvek!D3:D49,1)</f>
         <v>17</v>
       </c>
-      <c r="D4" s="104" t="n">
+      <c r="D4" s="103" t="n">
         <f aca="false">E4-C4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="107" t="n">
+      <c r="E4" s="106" t="n">
         <v>17</v>
       </c>
-      <c r="F4" s="108" t="n">
+      <c r="F4" s="107" t="n">
         <f aca="false">C4/E4</f>
         <v>1</v>
       </c>
@@ -6024,23 +5840,23 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
-      <c r="B5" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="104" t="n">
+      <c r="B5" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B4:B50,"="&amp;B5,Irányelvek!D4:D50,1)</f>
-        <v>8</v>
-      </c>
-      <c r="D5" s="104" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="103" t="n">
         <f aca="false">E5-C5</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="106" t="n">
         <v>9</v>
       </c>
-      <c r="F5" s="108" t="n">
+      <c r="F5" s="107" t="n">
         <f aca="false">C5/E5</f>
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -6068,23 +5884,23 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
-      <c r="B6" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="104" t="n">
+      <c r="B6" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B5:B51,"="&amp;B6,Irányelvek!D5:D51,1)</f>
-        <v>4</v>
-      </c>
-      <c r="D6" s="104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="103" t="n">
         <f aca="false">E6-C6</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="106" t="n">
         <v>7</v>
       </c>
-      <c r="F6" s="108" t="n">
+      <c r="F6" s="107" t="n">
         <f aca="false">C6/E6</f>
-        <v>0.571428571428571</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -6112,21 +5928,21 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
-      <c r="B7" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="104" t="n">
+      <c r="B7" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!D6:D52,1)</f>
         <v>6</v>
       </c>
-      <c r="D7" s="104" t="n">
+      <c r="D7" s="103" t="n">
         <f aca="false">E7-C7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="107" t="n">
+      <c r="E7" s="106" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="108" t="n">
+      <c r="F7" s="107" t="n">
         <f aca="false">C7/E7</f>
         <v>1</v>
       </c>
@@ -6156,24 +5972,24 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
-      <c r="B8" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="110" t="n">
+      <c r="B8" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="109" t="n">
         <f aca="false">SUM(C3:C7)</f>
-        <v>42</v>
-      </c>
-      <c r="D8" s="110" t="n">
+        <v>45</v>
+      </c>
+      <c r="D8" s="109" t="n">
         <f aca="false">SUM(D3:D7)</f>
-        <v>5</v>
-      </c>
-      <c r="E8" s="110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="109" t="n">
         <f aca="false">SUM(E3:E7)</f>
         <v>47</v>
       </c>
-      <c r="F8" s="108" t="n">
+      <c r="F8" s="107" t="n">
         <f aca="false">C8/E8</f>
-        <v>0.893617021276596</v>
+        <v>0.957446808510638</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -6201,11 +6017,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -6232,11 +6048,11 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -6263,11 +6079,11 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -6294,11 +6110,11 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -6325,11 +6141,11 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -6356,11 +6172,11 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -6387,11 +6203,11 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -6418,11 +6234,11 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -6449,11 +6265,11 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -6480,11 +6296,11 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -6511,11 +6327,11 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -6542,11 +6358,11 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -6573,11 +6389,11 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -6604,11 +6420,11 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -6635,11 +6451,11 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -6666,11 +6482,11 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -6697,12 +6513,12 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112" t="s">
-        <v>105</v>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111" t="s">
+        <v>104</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -7463,7 +7279,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
@@ -7474,13 +7290,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10"/>
-      <c r="B1" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="B1" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -7507,18 +7323,18 @@
     </row>
     <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="105" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="E2" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="F2" s="104" t="s">
         <v>102</v>
-      </c>
-      <c r="F2" s="105" t="s">
-        <v>103</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -7546,22 +7362,22 @@
     </row>
     <row r="3" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
-      <c r="B3" s="106" t="str">
+      <c r="B3" s="105" t="str">
         <f aca="false">Irányelvek!B2</f>
         <v>Kurzus követelmény</v>
       </c>
-      <c r="C3" s="104" t="n">
+      <c r="C3" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B2:B48,"="&amp;B3,Irányelvek!F2:F48,1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="104" t="n">
+      <c r="D3" s="103" t="n">
         <f aca="false">E3-C3</f>
         <v>8</v>
       </c>
-      <c r="E3" s="113" t="n">
+      <c r="E3" s="112" t="n">
         <v>8</v>
       </c>
-      <c r="F3" s="108" t="n">
+      <c r="F3" s="107" t="n">
         <f aca="false">C3/E3</f>
         <v>0</v>
       </c>
@@ -7591,21 +7407,21 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
-      <c r="B4" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="104" t="n">
+      <c r="B4" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B3:B49,"="&amp;B4,Irányelvek!F3:F49,1)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="104" t="n">
+      <c r="D4" s="103" t="n">
         <f aca="false">E4-C4</f>
         <v>17</v>
       </c>
-      <c r="E4" s="113" t="n">
+      <c r="E4" s="112" t="n">
         <v>17</v>
       </c>
-      <c r="F4" s="108" t="n">
+      <c r="F4" s="107" t="n">
         <f aca="false">C4/E4</f>
         <v>0</v>
       </c>
@@ -7635,21 +7451,21 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
-      <c r="B5" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="104" t="n">
+      <c r="B5" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B4:B50,"="&amp;B5,Irányelvek!F4:F50,1)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="104" t="n">
+      <c r="D5" s="103" t="n">
         <f aca="false">E5-C5</f>
         <v>9</v>
       </c>
-      <c r="E5" s="113" t="n">
+      <c r="E5" s="112" t="n">
         <v>9</v>
       </c>
-      <c r="F5" s="108" t="n">
+      <c r="F5" s="107" t="n">
         <f aca="false">C5/E5</f>
         <v>0</v>
       </c>
@@ -7679,21 +7495,21 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
-      <c r="B6" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="104" t="n">
+      <c r="B6" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B5:B51,"="&amp;B6,Irányelvek!F5:F51,1)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="104" t="n">
+      <c r="D6" s="103" t="n">
         <f aca="false">E6-C6</f>
         <v>7</v>
       </c>
-      <c r="E6" s="113" t="n">
+      <c r="E6" s="112" t="n">
         <v>7</v>
       </c>
-      <c r="F6" s="108" t="n">
+      <c r="F6" s="107" t="n">
         <f aca="false">C6/E6</f>
         <v>0</v>
       </c>
@@ -7723,21 +7539,21 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
-      <c r="B7" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="104" t="n">
+      <c r="B7" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="103" t="n">
         <f aca="false">COUNTIFS(Irányelvek!B6:B52,"="&amp;B7,Irányelvek!F6:F52,1)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="104" t="n">
+      <c r="D7" s="103" t="n">
         <f aca="false">E7-C7</f>
         <v>6</v>
       </c>
-      <c r="E7" s="113" t="n">
+      <c r="E7" s="112" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="108" t="n">
+      <c r="F7" s="107" t="n">
         <f aca="false">C7/E7</f>
         <v>0</v>
       </c>
@@ -7767,22 +7583,22 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
-      <c r="B8" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="110" t="n">
+      <c r="B8" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="109" t="n">
         <f aca="false">SUM(C3:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="110" t="n">
+      <c r="D8" s="109" t="n">
         <f aca="false">SUM(D3:D7)</f>
         <v>47</v>
       </c>
-      <c r="E8" s="110" t="n">
+      <c r="E8" s="109" t="n">
         <f aca="false">SUM(E3:E7)</f>
         <v>47</v>
       </c>
-      <c r="F8" s="108" t="n">
+      <c r="F8" s="107" t="n">
         <f aca="false">C8/E8</f>
         <v>0</v>
       </c>
@@ -7812,11 +7628,11 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -7843,11 +7659,11 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -7874,11 +7690,11 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -7905,11 +7721,11 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -7936,11 +7752,11 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -7967,11 +7783,11 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -7998,11 +7814,11 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -8029,11 +7845,11 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -8060,11 +7876,11 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -8091,11 +7907,11 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -8122,11 +7938,11 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -8153,11 +7969,11 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -8184,11 +8000,11 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -8215,11 +8031,11 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -8246,11 +8062,11 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -8277,11 +8093,11 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -8308,12 +8124,12 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112" t="s">
-        <v>105</v>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111" t="s">
+        <v>104</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -9074,9 +8890,9 @@
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="114" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="113" width="9.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.44"/>
@@ -9085,11 +8901,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
+      <c r="B1" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="58"/>
@@ -9100,14 +8916,14 @@
       <c r="D2" s="58"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="117" t="n">
+      <c r="B3" s="116" t="n">
         <v>0.49</v>
       </c>
-      <c r="C3" s="118" t="n">
+      <c r="C3" s="117" t="n">
         <v>-100</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>56</v>
@@ -9121,15 +8937,15 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="117" t="n">
+      <c r="B4" s="116" t="n">
         <v>0.62</v>
       </c>
-      <c r="C4" s="118" t="n">
+      <c r="C4" s="117" t="n">
         <f aca="false">ROUNDDOWN($C$2*B3+1,0)</f>
         <v>50</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">H3/2</f>
@@ -9137,43 +8953,43 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="117" t="n">
+      <c r="B5" s="116" t="n">
         <v>0.75</v>
       </c>
-      <c r="C5" s="118" t="n">
+      <c r="C5" s="117" t="n">
         <f aca="false">ROUNDDOWN($C$2*B4+1,0)</f>
         <v>63</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="117" t="n">
+      <c r="B6" s="116" t="n">
         <v>0.88</v>
       </c>
-      <c r="C6" s="118" t="n">
+      <c r="C6" s="117" t="n">
         <f aca="false">ROUNDDOWN($C$2*B5+1,0)</f>
         <v>76</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="117" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="118" t="n">
+      <c r="B7" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="117" t="n">
         <f aca="false">ROUNDDOWN($C$2*B6+1,0)</f>
         <v>89</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="119"/>
+      <c r="D8" s="118"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="b">
